--- a/vamos2.xlsx
+++ b/vamos2.xlsx
@@ -3801,7 +3801,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Controlog</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Controlog</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Controlog</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Controlog</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Controlog</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">

--- a/vamos2.xlsx
+++ b/vamos2.xlsx
@@ -1061,7 +1061,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Controlog</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">

--- a/vamos2.xlsx
+++ b/vamos2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,11 @@
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1011,7 +1015,11 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1099,7 +1107,11 @@
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1179,7 +1191,11 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1267,7 +1283,11 @@
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1347,7 +1367,11 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1423,7 +1447,11 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1499,7 +1527,11 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1693,7 +1725,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1799,11 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1943,7 +1979,11 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2037,7 +2077,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2155,11 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2191,7 +2235,11 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2271,7 +2319,11 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2359,7 +2411,11 @@
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2435,7 +2491,11 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2895,7 +2955,11 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2975,7 +3039,11 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3051,7 +3119,11 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3131,7 +3203,11 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3207,7 +3283,11 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3283,7 +3363,11 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3359,7 +3443,11 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3435,7 +3523,11 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3515,7 +3607,11 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3595,7 +3691,11 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3675,7 +3775,11 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3755,7 +3859,11 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3839,7 +3947,11 @@
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4015,7 +4127,11 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4095,7 +4211,11 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4171,7 +4291,11 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4347,7 +4471,11 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4427,7 +4555,11 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4699,7 +4831,11 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4775,7 +4911,11 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4851,7 +4991,11 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5031,7 +5175,11 @@
       </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5115,7 +5263,11 @@
       </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5199,7 +5351,11 @@
       </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5471,7 +5627,11 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5572,7 +5732,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>152266</t>
+          <t>153618.0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5582,27 +5742,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIA SUL VEICULOS S/A (016747)                                  </t>
+          <t xml:space="preserve">MERITUM ASSESSORIA EMPRESARIAL  (219913)                       </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>17/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>782.5</t>
+          <t>1724.25</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.385</t>
+          <t>0.236</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>35356402</t>
+          <t>8534772961</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5612,17 +5772,13 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>DUNAS</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NÃO ENCONTRADO</t>
-        </is>
-      </c>
+          <t>PATRIOLINO RIBEIRO</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOZIEL                                            </t>
+          <t xml:space="preserve">HIGOR                                             </t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5655,12 +5811,16 @@
       </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>152267</t>
+          <t>153617.0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5670,25 +5830,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANDRE DE SOUSA HOLANDA (063166)                                </t>
+          <t xml:space="preserve">DISTRIBUIDORA MAIA DE MAT DE CONST. LTDA (005234)              </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>299.0</t>
+          <t>1089.5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.036</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>5.185</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>34525212</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>CE</t>
@@ -5696,22 +5860,22 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>PASSARE</t>
+          <t>DISTRITO INDUSTRIAL I</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>Controlog</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve">LARA PEDROSA                                      </t>
+          <t xml:space="preserve">ZIL                                               </t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Retira Matriz</t>
+          <t>Entrega Matriz</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5725,40 +5889,84 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3544.0</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRUNO SANTIAGO (069086)                                        </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>134365.27</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>513.729</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>NÃO ENCONTRADO</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIGOR                                             </t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Sem frete</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -5773,6 +5981,5610 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3545.0</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRUNO SANTIAGO (069086)                                        </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIGOR                                             </t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Sem frete</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3546.0</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HELIO DOS SANTOS (220330)                                      </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>8598770-0942</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TAUAPE</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LARA PEDROSA                                      </t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Sem frete</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>153619.0</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONEXA TECNOLOGIA DA INFORMACAO EIRELI (024410)                </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>32882061</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>JOAQUIM TAVORA</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTELLA                                           </t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>153623.0</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOVUM DISTRIBUIDORA DE PECAS INDUSTRIAIS E AUTOMOT (015683)    </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>376.2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>85-3444-5528</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CAJAZEIRAS</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>153620.0</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALFREDO BARBOSA DE PAULA (067161)                              </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>85 99629-1374</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>153621.0</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLÁUDIO FONTENELE CAVALCANTE (070246)                          </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>85 9 97409889</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>DIONISIO TORRES</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOICE FERNANDA NOSCHANG                           </t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>153626.0</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALVOAR LACTEOS NORDESTE S/A (003175)                           </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>754.0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.541</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>40116136</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>JARDIM AMERICA</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ AUGUSTO VIEIRA SOBRINHO                      </t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>153622.0</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARLOS JOAQUIM SOUSA MELO  (064402)                            </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>160.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>85992984230</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOICE FERNANDA NOSCHANG                           </t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3547.0</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLIENTE PADRÃO (000003)                                        </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>85-3333-4444</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>JOAQUIM TAVORA</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Sem frete</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3548.0</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLIENTE PADRÃO (000003)                                        </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>85-3333-4444</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>JOAQUIM TAVORA</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Sem frete</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>25/11/2012</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>MERCADORIA ENTREGUE</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>153628.0</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAVARES &amp; NOBRE &amp; DINIZ SUPERMERCADO LTDA (093728)             </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1971.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>SAPIRANGA</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANGELICA                                          </t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>153627.0</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B&amp;Q ENERGIA LTDA (016223)                                      </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>11733.6</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>32606725</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>DISTRITO INDUSTRIAL 2</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTELLA                                           </t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>153629.0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SL ADMINISTRAÇÃO E PARTICIPAÇÕES LTDA (014276)                 </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>32161564</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>COCO</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANGELICA                                          </t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>153630.0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUTO PECAS CAMPINA GRANDE LTDA (068605)                        </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>32151155</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>ANCURI</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>153631.0</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ECOFOR AMBIENTAL S/A (001336)                                  </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4008-3302</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>JARDIM DAS OLIVEIRAS</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANGELICA                                          </t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>153632.0</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S V COMERCIO DE MATERIAL ELETRICO LTDA (005142)                </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>8532147933</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>OTAVIO BONFIM</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ AUGUSTO VIEIRA SOBRINHO                      </t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>153633.0</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LANLINK SERVICOS DE INFORMATICA SA (017669)                    </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>34668000</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIVIA ALVES PEREIRA CARNEIRO                      </t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>153634.0</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUPERMERCADO MEZAEL LTDA (017249)                              </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>32638916</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>VICENTE PINZON</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>153635.0</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANTONIO HIGOR FROTA SILVA (144413)                             </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>153637.0</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDILSON BARBOSA DINIZ (220394)                                 </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>150.1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>85 9 8119-4542</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>BOA VISTA</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EVANDRO                                           </t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>153636.0</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARLOS JOAQUIM SOUSA MELO  (064402)                            </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>85992984230</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOICE FERNANDA NOSCHANG                           </t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>153645.0</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FORNECEDORA ASFALTOS E PAVIMENTACAO LTDA (023230)              </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3105.55</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>VILA MACHADO</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOZIEL                                            </t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>153650.0</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CATATAU COMERCIO DE PNEUS LTDA (050005)                        </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2380.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>17.175</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>PARQUE SAO JOSE</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>153648.0</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NACIONAL VEICULOS E SERVICOS LTDA (015394)                     </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>460.6</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>30368140</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>DAMAS</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>153647.0</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NACIONAL VEICULOS E SERVICOS LTDA (015394)                     </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>30368140</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>DAMAS</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>153646.0</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MENDES COMBUSTIVEIS LTDA (220386)                              </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>425.88</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>VEREADOR JOAO ALBUQUERQUE</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>153644.0</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RICARDO DOS SANTOS ROSA (056843)                               </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>987024854</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>JANGURUSSU</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>153649.0</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIDIANY VIANA MARTINS  (220412)                                </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1999.0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>85 9122-4695</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>JANGURUSSU</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>153651.0</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FORNECEDORA ASFALTOS E PAVIMENTACAO LTDA (023230)              </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3198.0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>VILA MACHADO</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOZIEL                                            </t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>153652.0</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WMS EXPERT DESENVOLVIMENTO DE SOFTWARES LTDA (070448)          </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>EDSON QUEIROZ</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIGOR                                             </t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3549.0</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RICARDO ALEXANDRE PAIVA  (220419)                              </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>85 9 9957 2345</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>COCO</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EVANDRO                                           </t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Sem frete</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>153653.0</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RYAN NASCIMENTO HONORATO DA SILVA  (220424)                    </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1999.0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>85 9 9751 7463</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Patrícia Gomes</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EVANDRO                                           </t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>153656.0</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALVOAR LACTEOS NORDESTE S/A (056944)                           </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.236</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>MORADA NOVA</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ AUGUSTO VIEIRA SOBRINHO                      </t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>153658.0</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INFOLINK TELECOM LTDA (014600)                                 </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>7125.0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>85-3260-0450</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GERARDO                                           </t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>153664.0</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECNOVETTI PRODUTOS E SERVICOS PARA ESCRITORIO LTD (023980)    </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>85 4011-2014</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIVIA ALVES PEREIRA CARNEIRO                      </t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>153662.0</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ATLANTIS EMPREENDIMENTOS TURISTICOS LTDA (039350)              </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>8782-4268</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>PRAIA DAS FONTES</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ AUGUSTO VIEIRA SOBRINHO                      </t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>153670.0</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VOUGA VEICULOS E PECAS LTDA (003195)                           </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1054.5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.705</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>8533068580</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>153672.0</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SM INDUSTRIA DE MINERIOS DO BRASIL LTDA (004664)               </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>967.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.581</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>8532683497</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>DIONISIO TORRES</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANU                                              </t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4303.0</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBSON DE ARAUJO PINHEIRO (067323)                             </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THIAGO                                            </t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>153667.0</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBSON DE ARAUJO PINHEIRO (067323)                             </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.268</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>153668.0</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PULSO ENGENHARIA E SERVICOS TECNICOS LTDA (016667)             </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>30324200</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>ALVARO WEYNE</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>153669.0</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FARMAFORMULA LTDA (013134)                                     </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.352</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>153675.0</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CENTRO EDUCACIONAL MASTER LTDA (020200)                        </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.256</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>4009.0101</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CIDADE DOS FUNCIONARIOS</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIVIA ALVES PEREIRA CARNEIRO                      </t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>153673.0</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAGNA PRAIA HOTEL LTDA (001448)                                </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.998</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>32666161</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>PRAIA DE IRACEMA</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>153671.0</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RICARDO DOS SANTOS ROSA (056843)                               </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>987024854</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>JANGURUSSU</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>153674.0</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VASPEL COMERCIO E INDUSTRIA LTDA (064319)                      </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1149.0</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Alto Alegre I</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LARA PEDROSA                                      </t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>153678.0</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUTO GERAL LTDA (057396)                                       </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>3310.0</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>988448080</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>FATIMA</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>153679.0</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DIEGO CASTRO NOGUEIRA (023551)                                 </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>509.0</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>MEIRELES</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOICE FERNANDA NOSCHANG                           </t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>153681.0</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEVI MARTINS (220459)                                          </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.251</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>VICENTE PINZON</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIGOR                                             </t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>153682.0</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RP COMERCIO DE CONFECCOES LTDA (119886)                        </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>85999255500</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>EDSON QUEIROZ</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTELLA                                           </t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>153683.0</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEIRELES &amp; FREITAS SERVIÇOS DE COBRANÇA (001393)               </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>5115.05</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>32554300</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTELLA                                           </t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>153684.0</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANA HOTELARIA LTDA (072891)                                   </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2090.0</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>986703010</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>MEIRELES</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>153685.0</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COOPEND-COOPERATIVA DE ENDOSCOPIA DO CEARA LTDA (004348)       </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>3265-2117</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTELLA                                           </t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>153690.0</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BISCOITOS BRIEJER CONFEITARIA EIRELI (022500)                  </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>30232076</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>ENGENHEIRO LUCIANO CAVALCANTE</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTELLA                                           </t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>153688.0</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAMARIA RACOES E NUTRICAO ANIMAL LTDA (024276)                 </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10265.4</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>85 9 8691-5375</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>DISTRITO INDUSTRIAL III</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOZIEL                                            </t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>153686.0</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DANIEL LEITE GONÇALVES (141704)                                </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>435.6</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.188</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>85987252022</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Nova Metrópole (Jurema)</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDILENE MARIA DOS SANTOS OLIVEIRA                 </t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>153687.0</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESDRAS COELHO (039487)                                         </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>PREFEITO JOSE WALTER</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIGOR                                             </t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4304.0</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUEBEC COMERCIAL LTDA (000569)                                 </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>85 - 99843231</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THIAGO                                            </t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>153689.0</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MATMED COMERCIO DE PRODUTOS HOSPITALARES LTDA (065302)         </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>34548.0</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>85 99827-0082</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>JOAQUIM TAVORA</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>153691.0</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COLEGIO BATISTA SANTOS DUMONT (010236)                         </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>572.0</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.907</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>40082392</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>ALDEOTA</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERA RAMOS                                        </t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Frete por conta do emitente</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>153695.0</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GUSTAVO ZECH SYLVESTRE  (070454)                               </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>MEIRELES</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>153692.0</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RENATO MAGALHAES SILVA (021975)                                </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>373.5</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>153693.0</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAULO JUAN DA SILVA HORTENCIO (220508)                         </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>8592694290</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>ANCURI</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARJORY                                           </t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>153694.0</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ WILLIAM PINTO DE ALMEIDA (220501)                         </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>85 9 8617 9381</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>GENIBAU</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EVANDRO                                           </t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Retira Imediato Matriz</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>153701.0</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HOSPITAL SAN MARINO LTDA (068720)                              </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>10636.2</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>987054369</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>PLANALTO</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOSÉ AUGUSTO VIEIRA SOBRINHO                      </t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>153702.0</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIA SUL CONDOMINIO (018735)                                    </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1395.55</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3048-1300 </t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>SAPIRANGA</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOZIEL                                            </t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>ATRASADO</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>153703.0</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FUNDO DE PROMOCOES COLETIVAS DO RIOMAR SHOPPING FO (019392)    </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>398.05</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85 3066-2028      </t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>PAPICU</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Controlog</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTELLA                                           </t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Entrega Matriz</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>153704.0</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECER TERMINAIS PORTUARIOS CEARA LTDA (000156)                 </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1568.0</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>8533151415</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>PECEM</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZIL                                               </t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Retira Matriz</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Frete por conta do destinatário</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>121460.77</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>712.5250000000001</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
